--- a/jozve.xlsx
+++ b/jozve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864F247D-2557-43E6-9716-E6E5AC310621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF80CD-019C-490B-A729-D55E56FCF4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="Excell" sheetId="2" r:id="rId3"/>
     <sheet name="hysys" sheetId="3" r:id="rId4"/>
     <sheet name="Word" sheetId="4" r:id="rId5"/>
-    <sheet name="Obsidian" sheetId="5" r:id="rId6"/>
-    <sheet name="Matlab" sheetId="6" r:id="rId7"/>
+    <sheet name="Matlab" sheetId="6" r:id="rId6"/>
+    <sheet name="Obsidian" sheetId="8" r:id="rId7"/>
+    <sheet name="Download" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'جدول دستورات اتوکد'!$C$14:$G$347</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="999">
   <si>
     <t>کاربرد</t>
   </si>
@@ -3064,6 +3065,96 @@
   <si>
     <t>ex</t>
   </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>hubby</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>جعبه‌های رنگی برای نوشتن</t>
+  </si>
+  <si>
+    <t>callout</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>any where</t>
+  </si>
+  <si>
+    <t>میتونیم یک تمپلیت بسازیم و مدام اون را صدا کنیم.</t>
+  </si>
+  <si>
+    <t>برای یادداشت‌های تکراری چیکار کنیم؟</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>تمرکز پایین</t>
+  </si>
+  <si>
+    <t>این که میتونیم به راحتی یادداشت‌هارو بهم لینک کنیم. امکان کد نویسی وجود دارد.</t>
+  </si>
+  <si>
+    <t>برتری obsidian نسبت به onenote</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>تمرکز بالا</t>
+  </si>
+  <si>
+    <t>یک سیستم آفلاین است و همش فایل و فولدر هست.</t>
+  </si>
+  <si>
+    <t>چرا obsidian</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Time type</t>
+  </si>
+  <si>
+    <t>دلیل</t>
+  </si>
+  <si>
+    <t>سوال</t>
+  </si>
 </sst>
 </file>
 
@@ -3072,7 +3163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3171,8 +3262,21 @@
       <name val="Sahel"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sahel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sahel"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3185,8 +3289,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3194,11 +3310,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3234,33 +3365,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3542,6 +3694,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3556,13 +3711,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3614,6 +3769,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF1D33-4987-403D-A8B0-32B6941C85E7}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="B1:N347"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3633,12 +3791,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
@@ -3648,106 +3806,106 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="14" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
@@ -10141,11 +10299,6 @@
   </sheetData>
   <autoFilter ref="C14:G347" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="B2:F2"/>
@@ -10153,6 +10306,11 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10161,6 +10319,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F3536-F3FE-4818-AAFC-C9240EFAF5C4}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10173,6 +10334,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812804A7-F21F-4F9E-90B6-5053DAA1F314}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10185,6 +10349,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247099A-2576-4DE5-B729-8035FCDFB242}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10196,7 +10363,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D023266B-7DB8-4090-BDE4-A7B302B737F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622764E1-0152-4785-901A-696A79F246C4}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10208,7 +10378,158 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622764E1-0152-4785-901A-696A79F246C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F9C66-9321-4F98-BC4E-3012745D7E6F}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>997</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A2" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A4" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A5" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54389D-CC8A-444C-AAC0-3ADCA2013C9B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
